--- a/biology/Médecine/Université_des_sciences_médicales_de_Babol/Université_des_sciences_médicales_de_Babol.xlsx
+++ b/biology/Médecine/Université_des_sciences_médicales_de_Babol/Université_des_sciences_médicales_de_Babol.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Universit%C3%A9_des_sciences_m%C3%A9dicales_de_Babol</t>
+          <t>Université_des_sciences_médicales_de_Babol</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Université des sciences médicales de Babol (MUBabol) ( persan : دانشگاه علوم پزشکی بابل   , Danushgah-e 'lum-e Pezeshki-ye Babel ), est une université de médecine située dans la ville de Babol, dans la province de Mazandéran en Iran.
 Elle a été fondée en tant qu'école de techniciens de laboratoire en 1962 et a été élevée au statut d'université en 1985.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Universit%C3%A9_des_sciences_m%C3%A9dicales_de_Babol</t>
+          <t>Université_des_sciences_médicales_de_Babol</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Écoles</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Faculté de médecine (fondée en 1992),
 École d'infirmières et de sages-femmes (fondée en 2017)
@@ -533,7 +547,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Universit%C3%A9_des_sciences_m%C3%A9dicales_de_Babol</t>
+          <t>Université_des_sciences_médicales_de_Babol</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -551,7 +565,9 @@
           <t>Centres de recherche</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Centre de recherche en biologie cellulaire et moléculaire
 Centre de recherche sur les maladies pédiatriques non transmissibles
@@ -575,7 +591,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Universit%C3%A9_des_sciences_m%C3%A9dicales_de_Babol</t>
+          <t>Université_des_sciences_médicales_de_Babol</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -593,7 +609,9 @@
           <t>Revues internationales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Revue Caspienne de Recherche Dentaire
 Journal caspien de médecine interne
